--- a/Top 10 copii.xlsx
+++ b/Top 10 copii.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +426,7 @@
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -436,8 +436,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -458,8 +464,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -469,8 +478,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -480,8 +492,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -491,8 +506,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -502,8 +520,11 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -513,8 +534,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -524,8 +548,11 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -534,6 +561,9 @@
       </c>
       <c r="C10" t="s">
         <v>19</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
